--- a/games/Bomberman/docs/Trainings.xlsx
+++ b/games/Bomberman/docs/Trainings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marko\Desktop\deep-rl\games\Bomberman\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB97CF80-4374-422B-88B4-637F3B2C327B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1537B368-2DA5-48CC-A8FD-841F618916D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="330" windowWidth="25440" windowHeight="15990" xr2:uid="{8C73EABF-30A6-479F-8ABE-4B13DD72CEF4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Trapped</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Reward za postavljene bombe se racuna samo kada su bombom zahvaceni crate-ovi I protivnici. Naucio je da stoji u mesto I da se ubije</t>
+  </si>
+  <si>
+    <t>ppo_bombarder8</t>
+  </si>
+  <si>
+    <t>Gamma je podesena na 0.5 umesto na 0.99. Ne izbegava dobro bombe</t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7917D6-6393-426E-935F-A0EDDAB7E3B2}">
-  <dimension ref="A2:K7"/>
+  <dimension ref="A2:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,6 +568,9 @@
       <c r="I5">
         <v>-0.3</v>
       </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -625,6 +634,38 @@
       </c>
       <c r="K7" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-0.2</v>
+      </c>
+      <c r="C8">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="D8">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.05</v>
+      </c>
+      <c r="G8">
+        <v>0.25</v>
+      </c>
+      <c r="H8">
+        <v>0.03</v>
+      </c>
+      <c r="I8">
+        <v>-0.3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
